--- a/Warrior-Pilgrims/Assets/Resources/Data/Healing/Healings.xlsx
+++ b/Warrior-Pilgrims/Assets/Resources/Data/Healing/Healings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Games\GitHub\Warrior-Pilgrims\Warrior-Pilgrims\Assets\Resources\Data\Healing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{236E3489-1269-4A1F-9F00-539C67DB653E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0345303-FEF8-4847-9438-5CAB3A4E88F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -423,7 +423,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
